--- a/banhang24/Template/ExportExcel/BaoCao/Teamplate_ChietKhauHangHoaTheoNhanVien.xlsx
+++ b/banhang24/Template/ExportExcel/BaoCao/Teamplate_ChietKhauHangHoaTheoNhanVien.xlsx
@@ -43,10 +43,10 @@
     <t>Bán gói dịch vụ</t>
   </si>
   <si>
-    <t>Theo yêu cầu</t>
-  </si>
-  <si>
     <t>Tư vấn</t>
+  </si>
+  <si>
+    <t>Hỗ trợ</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>7</v>
